--- a/addons-dev/dgf_asset/data/csv/Мега/dgf.asset.partners.xlsx
+++ b/addons-dev/dgf_asset/data/csv/Мега/dgf.asset.partners.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">32055820</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_32055820</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "Агроімпортекспорт"</t>
   </si>
   <si>
@@ -52,106 +55,160 @@
     <t xml:space="preserve">13568038</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_13568038</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПАТ "Вібросепаратор"</t>
   </si>
   <si>
     <t xml:space="preserve">05409745</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_05409745</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВАТ "Миколаївмолпром"</t>
   </si>
   <si>
     <t xml:space="preserve">31367542</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_31367542</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "АЛЬКОМ"</t>
   </si>
   <si>
     <t xml:space="preserve">34524243</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_34524243</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПП " ВКФ Західпродуктгруп"</t>
   </si>
   <si>
     <t xml:space="preserve">36370963</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_36370963</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПП "ОНІКС-КО"</t>
   </si>
   <si>
     <t xml:space="preserve">32030099</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_32030099</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "РОСКОНТРАКТ"</t>
   </si>
   <si>
     <t xml:space="preserve">01056356</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_01056356</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВАТ "ІТРЗ"</t>
   </si>
   <si>
     <t xml:space="preserve">36370979</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_36370979</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПП "АНТЕЙ-БІЗНЕС-Л"</t>
   </si>
   <si>
     <t xml:space="preserve">03797482</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_03797482</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "Праця Стольне"</t>
   </si>
   <si>
     <t xml:space="preserve">42832736</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_42832736</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "ОРЕНДА-КАПІТАЛ 2019"</t>
   </si>
   <si>
     <t xml:space="preserve">37066342</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_37066342</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "СПП-АГРО"</t>
   </si>
   <si>
     <t xml:space="preserve">31931852</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_31931852</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТОВ "Сільськогосподарське підприємство "СХІД-АГРО"</t>
   </si>
   <si>
     <t xml:space="preserve">20112050</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_20112050</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТзОВ "Гекторклуб-ЛТД"</t>
   </si>
   <si>
     <t xml:space="preserve">30758879</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_30758879</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПП "Укрпромтранс 2"</t>
   </si>
   <si>
     <t xml:space="preserve">31546568</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_31546568</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПП "Агора-1"</t>
   </si>
   <si>
     <t xml:space="preserve">32894508</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_32894508</t>
+  </si>
+  <si>
     <t xml:space="preserve">ТзОВ " Лізингова компанія "КонФІЛ"</t>
   </si>
   <si>
     <t xml:space="preserve">30983889</t>
   </si>
   <si>
+    <t xml:space="preserve">351629_30983889</t>
+  </si>
+  <si>
     <t xml:space="preserve">Приватне підприємство "Фірма "ДВД"</t>
   </si>
   <si>
     <t xml:space="preserve">24903468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351629_24903468</t>
   </si>
   <si>
     <t xml:space="preserve">ПП"ТІС"</t>
@@ -161,8 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -230,13 +288,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -268,30 +338,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E2:E20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -302,324 +373,343 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
